--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.8004347247318</v>
+        <v>230.2859181983885</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.3824929216743</v>
+        <v>315.0873527765779</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.2540585095735</v>
+        <v>285.0158580555517</v>
       </c>
       <c r="AD2" t="n">
-        <v>161800.4347247318</v>
+        <v>230285.9181983885</v>
       </c>
       <c r="AE2" t="n">
-        <v>221382.4929216743</v>
+        <v>315087.3527765779</v>
       </c>
       <c r="AF2" t="n">
         <v>1.241910873666547e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>200254.0585095735</v>
+        <v>285015.8580555517</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.8013324786386</v>
+        <v>167.7439388303796</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.5492242420905</v>
+        <v>229.5146574479129</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.0357544197393</v>
+        <v>207.6101006669951</v>
       </c>
       <c r="AD3" t="n">
-        <v>118801.3324786386</v>
+        <v>167743.9388303797</v>
       </c>
       <c r="AE3" t="n">
-        <v>162549.2242420905</v>
+        <v>229514.6574479129</v>
       </c>
       <c r="AF3" t="n">
         <v>1.611424854542043e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.74537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>147035.7544197393</v>
+        <v>207610.1006669951</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.6093943347505</v>
+        <v>154.7303250272198</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.1818736552526</v>
+        <v>211.7088569223169</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.0852176432928</v>
+        <v>191.5036607529583</v>
       </c>
       <c r="AD4" t="n">
-        <v>115609.3943347505</v>
+        <v>154730.3250272198</v>
       </c>
       <c r="AE4" t="n">
-        <v>158181.8736552526</v>
+        <v>211708.8569223169</v>
       </c>
       <c r="AF4" t="n">
         <v>1.716899541438796e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.143518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>143085.2176432928</v>
+        <v>191503.6607529583</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.3774144963765</v>
+        <v>189.7470058579928</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.4388156451895</v>
+        <v>259.6202244618864</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.9772865731502</v>
+        <v>234.8424346185932</v>
       </c>
       <c r="AD2" t="n">
-        <v>141377.4144963765</v>
+        <v>189747.0058579928</v>
       </c>
       <c r="AE2" t="n">
-        <v>193438.8156451895</v>
+        <v>259620.2244618864</v>
       </c>
       <c r="AF2" t="n">
         <v>1.550999492021689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>174977.2865731502</v>
+        <v>234842.4346185932</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.0382390184508</v>
+        <v>151.7272812299591</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.6639055201261</v>
+        <v>207.5999599139649</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.9029994494824</v>
+        <v>187.7869111082089</v>
       </c>
       <c r="AD3" t="n">
-        <v>113038.2390184508</v>
+        <v>151727.2812299591</v>
       </c>
       <c r="AE3" t="n">
-        <v>154663.9055201261</v>
+        <v>207599.9599139648</v>
       </c>
       <c r="AF3" t="n">
         <v>1.899718424973892e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.039351851851851</v>
       </c>
       <c r="AH3" t="n">
-        <v>139902.9994494824</v>
+        <v>187786.9111082089</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.0770030175654</v>
+        <v>153.7529264897121</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.5074794325474</v>
+        <v>210.3715371235193</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.5250112200837</v>
+        <v>190.2939728788175</v>
       </c>
       <c r="AD2" t="n">
-        <v>107077.0030175654</v>
+        <v>153752.9264897121</v>
       </c>
       <c r="AE2" t="n">
-        <v>146507.4794325474</v>
+        <v>210371.5371235193</v>
       </c>
       <c r="AF2" t="n">
         <v>2.554028326267073e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.386574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>132525.0112200837</v>
+        <v>190293.9728788175</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.015158659825</v>
+        <v>146.9122847848164</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.159349487678</v>
+        <v>201.0118693550728</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.9237905190764</v>
+        <v>181.8275786658123</v>
       </c>
       <c r="AD2" t="n">
-        <v>109015.158659825</v>
+        <v>146912.2847848164</v>
       </c>
       <c r="AE2" t="n">
-        <v>149159.349487678</v>
+        <v>201011.8693550728</v>
       </c>
       <c r="AF2" t="n">
         <v>2.288387788210108e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.074074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>134923.7905190764</v>
+        <v>181827.5786658123</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.0291655652369</v>
+        <v>146.9262916902283</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.1785143536035</v>
+        <v>201.0310342209984</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.9411263170961</v>
+        <v>181.844914463832</v>
       </c>
       <c r="AD3" t="n">
-        <v>109029.1655652368</v>
+        <v>146926.2916902283</v>
       </c>
       <c r="AE3" t="n">
-        <v>149178.5143536035</v>
+        <v>201031.0342209984</v>
       </c>
       <c r="AF3" t="n">
         <v>2.291867216629702e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>134941.1263170961</v>
+        <v>181844.914463832</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.7806449869536</v>
+        <v>152.0368609428389</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.7337451837853</v>
+        <v>208.0235405348198</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.9205596785712</v>
+        <v>188.1700657891087</v>
       </c>
       <c r="AD2" t="n">
-        <v>105780.6449869536</v>
+        <v>152036.8609428389</v>
       </c>
       <c r="AE2" t="n">
-        <v>144733.7451837853</v>
+        <v>208023.5405348198</v>
       </c>
       <c r="AF2" t="n">
         <v>2.780332350039698e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.872685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>130920.5596785712</v>
+        <v>188170.0657891087</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.8302203929306</v>
+        <v>201.9823073594052</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.7948528830121</v>
+        <v>276.3611037595166</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.013028327224</v>
+        <v>249.9855878920346</v>
       </c>
       <c r="AD2" t="n">
-        <v>143830.2203929306</v>
+        <v>201982.3073594052</v>
       </c>
       <c r="AE2" t="n">
-        <v>196794.8528830122</v>
+        <v>276361.1037595166</v>
       </c>
       <c r="AF2" t="n">
         <v>1.464214466940692e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>178013.028327224</v>
+        <v>249985.5878920346</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.9685368299661</v>
+        <v>152.771097236349</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.9367800276836</v>
+        <v>209.028155023819</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.0543926005295</v>
+        <v>189.0788012812635</v>
       </c>
       <c r="AD3" t="n">
-        <v>113968.5368299661</v>
+        <v>152771.097236349</v>
       </c>
       <c r="AE3" t="n">
-        <v>155936.7800276836</v>
+        <v>209028.155023819</v>
       </c>
       <c r="AF3" t="n">
         <v>1.84034574346969e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>141054.3926005295</v>
+        <v>189078.8012812635</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.7632874925695</v>
+        <v>152.5658478989524</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.655948829296</v>
+        <v>208.7473238254314</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.8003635375669</v>
+        <v>188.8247722183009</v>
       </c>
       <c r="AD4" t="n">
-        <v>113763.2874925695</v>
+        <v>152565.8478989524</v>
       </c>
       <c r="AE4" t="n">
-        <v>155655.948829296</v>
+        <v>208747.3238254314</v>
       </c>
       <c r="AF4" t="n">
         <v>1.850597156018581e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.050925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>140800.3635375669</v>
+        <v>188824.7722183009</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.6588821456618</v>
+        <v>160.5391541535992</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.8813409445038</v>
+        <v>219.6567532004799</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.9088059491483</v>
+        <v>198.6930209652784</v>
       </c>
       <c r="AD2" t="n">
-        <v>114658.8821456618</v>
+        <v>160539.1541535992</v>
       </c>
       <c r="AE2" t="n">
-        <v>156881.3409445038</v>
+        <v>219656.7532004799</v>
       </c>
       <c r="AF2" t="n">
         <v>2.885504602247772e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>141908.8059491483</v>
+        <v>198693.0209652784</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.8648639970139</v>
+        <v>172.7397631072741</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.8456155696585</v>
+        <v>236.3501646237684</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.5403498030652</v>
+        <v>213.7932366316837</v>
       </c>
       <c r="AD2" t="n">
-        <v>124864.8639970139</v>
+        <v>172739.763107274</v>
       </c>
       <c r="AE2" t="n">
-        <v>170845.6155696585</v>
+        <v>236350.1646237684</v>
       </c>
       <c r="AF2" t="n">
         <v>1.861570001309354e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>154540.3498030652</v>
+        <v>213793.2366316837</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.1711795018988</v>
+        <v>149.4918002473469</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.1093123207284</v>
+        <v>204.5412762110959</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.5922130396403</v>
+        <v>185.0201438850513</v>
       </c>
       <c r="AD3" t="n">
-        <v>111171.1795018988</v>
+        <v>149491.8002473469</v>
       </c>
       <c r="AE3" t="n">
-        <v>152109.3123207284</v>
+        <v>204541.2762110959</v>
       </c>
       <c r="AF3" t="n">
         <v>2.065537447912805e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.039351851851851</v>
       </c>
       <c r="AH3" t="n">
-        <v>137592.2130396403</v>
+        <v>185020.1438850512</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.3008083528325</v>
+        <v>187.1731855346306</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.9150703373397</v>
+        <v>256.0986099465252</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.0305443262541</v>
+        <v>231.65691804996</v>
       </c>
       <c r="AD2" t="n">
-        <v>129300.8083528325</v>
+        <v>187173.1855346306</v>
       </c>
       <c r="AE2" t="n">
-        <v>176915.0703373397</v>
+        <v>256098.6099465252</v>
       </c>
       <c r="AF2" t="n">
         <v>1.644325310112783e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>160030.5443262541</v>
+        <v>231656.91804996</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.3437887106507</v>
+        <v>150.9149960554464</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.7137279720092</v>
+        <v>206.4885555027043</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.0435055129749</v>
+        <v>186.7815775740929</v>
       </c>
       <c r="AD3" t="n">
-        <v>112343.7887106507</v>
+        <v>150914.9960554464</v>
       </c>
       <c r="AE3" t="n">
-        <v>153713.7279720092</v>
+        <v>206488.5555027043</v>
       </c>
       <c r="AF3" t="n">
         <v>1.956843367468619e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.00462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>139043.5055129749</v>
+        <v>186781.5775740929</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8679159157483</v>
+        <v>217.3776059686703</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.3700913136259</v>
+        <v>297.4256305093422</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.624594879555</v>
+        <v>269.0397457731125</v>
       </c>
       <c r="AD2" t="n">
-        <v>158867.9159157483</v>
+        <v>217377.6059686703</v>
       </c>
       <c r="AE2" t="n">
-        <v>217370.0913136259</v>
+        <v>297425.6305093422</v>
       </c>
       <c r="AF2" t="n">
         <v>1.311552015057151e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>196624.5948795551</v>
+        <v>269039.7457731125</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.1981297793899</v>
+        <v>166.0123046632453</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.3556515806683</v>
+        <v>227.145359186133</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.0515332544239</v>
+        <v>205.4669249059878</v>
       </c>
       <c r="AD3" t="n">
-        <v>117198.1297793899</v>
+        <v>166012.3046632452</v>
       </c>
       <c r="AE3" t="n">
-        <v>160355.6515806683</v>
+        <v>227145.359186133</v>
       </c>
       <c r="AF3" t="n">
         <v>1.678809283657974e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.548611111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>145051.5332544239</v>
+        <v>205466.9249059877</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.8436505258765</v>
+        <v>153.8618360440371</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.1341491937191</v>
+        <v>210.5205519804972</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.1374865338772</v>
+        <v>190.4287659669891</v>
       </c>
       <c r="AD4" t="n">
-        <v>114843.6505258765</v>
+        <v>153861.8360440371</v>
       </c>
       <c r="AE4" t="n">
-        <v>157134.1491937191</v>
+        <v>210520.5519804972</v>
       </c>
       <c r="AF4" t="n">
         <v>1.765584334909103e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.074074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>142137.4865338772</v>
+        <v>190428.7659669891</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.5018931728278</v>
+        <v>157.9991178923722</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.1935652384649</v>
+        <v>216.1813635293797</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.7638635736486</v>
+        <v>195.5493176066469</v>
       </c>
       <c r="AD2" t="n">
-        <v>110501.8931728278</v>
+        <v>157999.1178923722</v>
       </c>
       <c r="AE2" t="n">
-        <v>151193.5652384649</v>
+        <v>216181.3635293797</v>
       </c>
       <c r="AF2" t="n">
         <v>2.157638905316706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>136763.8635736486</v>
+        <v>195549.3176066469</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0584563209015</v>
+        <v>148.1042698888016</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.5868353746065</v>
+        <v>202.642795961016</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.215039156446</v>
+        <v>183.3028519255046</v>
       </c>
       <c r="AD3" t="n">
-        <v>110058.4563209015</v>
+        <v>148104.2698888016</v>
       </c>
       <c r="AE3" t="n">
-        <v>150586.8353746065</v>
+        <v>202642.795961016</v>
       </c>
       <c r="AF3" t="n">
         <v>2.185339221617956e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.143518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>136215.0391564459</v>
+        <v>183302.8519255046</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7854412616809</v>
+        <v>154.688622878429</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4767958922352</v>
+        <v>211.6517982025725</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.4018174773034</v>
+        <v>191.4520476373439</v>
       </c>
       <c r="AD2" t="n">
-        <v>107785.4412616809</v>
+        <v>154688.622878429</v>
       </c>
       <c r="AE2" t="n">
-        <v>147476.7958922352</v>
+        <v>211651.7982025724</v>
       </c>
       <c r="AF2" t="n">
         <v>2.448969186106324e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>133401.8174773034</v>
+        <v>191452.0476373439</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.4949548669162</v>
+        <v>153.0247919551771</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.7110954746775</v>
+        <v>209.3752713303405</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8046330294206</v>
+        <v>189.3927892946715</v>
       </c>
       <c r="AD2" t="n">
-        <v>106494.9548669162</v>
+        <v>153024.7919551771</v>
       </c>
       <c r="AE2" t="n">
-        <v>145711.0954746775</v>
+        <v>209375.2713303405</v>
       </c>
       <c r="AF2" t="n">
         <v>2.652994691699542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>131804.6330294207</v>
+        <v>189392.7892946715</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.4941086812982</v>
+        <v>178.098916167946</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.9700876732408</v>
+        <v>243.6827942705228</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.8438196567611</v>
+        <v>220.4260503963645</v>
       </c>
       <c r="AD2" t="n">
-        <v>123494.1086812982</v>
+        <v>178098.916167946</v>
       </c>
       <c r="AE2" t="n">
-        <v>168970.0876732408</v>
+        <v>243682.7942705228</v>
       </c>
       <c r="AF2" t="n">
         <v>2.983074834299625e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>152843.8196567611</v>
+        <v>220426.0503963645</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.0183893872302</v>
+        <v>175.0532455406111</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.792164015386</v>
+        <v>239.5155733527002</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.2056838006401</v>
+        <v>216.6565431942064</v>
       </c>
       <c r="AD2" t="n">
-        <v>127018.3893872302</v>
+        <v>175053.2455406111</v>
       </c>
       <c r="AE2" t="n">
-        <v>173792.164015386</v>
+        <v>239515.5733527002</v>
       </c>
       <c r="AF2" t="n">
         <v>1.74802490783828e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>157205.6838006401</v>
+        <v>216656.5431942064</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.7227770031579</v>
+        <v>150.1713633831026</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.8640323567151</v>
+        <v>205.4710844736459</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.2749036546488</v>
+        <v>185.8612125520179</v>
       </c>
       <c r="AD3" t="n">
-        <v>111722.7770031579</v>
+        <v>150171.3633831026</v>
       </c>
       <c r="AE3" t="n">
-        <v>152864.0323567151</v>
+        <v>205471.0844736459</v>
       </c>
       <c r="AF3" t="n">
         <v>2.011283274694953e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.016203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>138274.9036546488</v>
+        <v>185861.2125520179</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.4239810978494</v>
+        <v>204.8419538556081</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.3437507081266</v>
+        <v>280.273798254319</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.22322432482</v>
+        <v>253.5248603157557</v>
       </c>
       <c r="AD2" t="n">
-        <v>146423.9810978494</v>
+        <v>204841.9538556081</v>
       </c>
       <c r="AE2" t="n">
-        <v>200343.7507081266</v>
+        <v>280273.7982543191</v>
       </c>
       <c r="AF2" t="n">
         <v>1.38440364969558e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>181223.22432482</v>
+        <v>253524.8603157556</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.7718883538165</v>
+        <v>164.3520470921302</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.4042051408688</v>
+        <v>224.87372153194</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.286330123966</v>
+        <v>203.4120891612467</v>
       </c>
       <c r="AD3" t="n">
-        <v>115771.8883538165</v>
+        <v>164352.0470921302</v>
       </c>
       <c r="AE3" t="n">
-        <v>158404.2051408688</v>
+        <v>224873.72153194</v>
       </c>
       <c r="AF3" t="n">
         <v>1.746118403081833e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>143286.330123966</v>
+        <v>203412.0891612467</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.3315773226756</v>
+        <v>153.2437381055912</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.4335080460247</v>
+        <v>209.6748431125594</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.5037135939625</v>
+        <v>189.6637703664471</v>
       </c>
       <c r="AD4" t="n">
-        <v>114331.5773226756</v>
+        <v>153243.7381055912</v>
       </c>
       <c r="AE4" t="n">
-        <v>156433.5080460247</v>
+        <v>209674.8431125593</v>
       </c>
       <c r="AF4" t="n">
         <v>1.805658994626558e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.074074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>141503.7135939625</v>
+        <v>189663.7703664471</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.9222459388509</v>
+        <v>205.0284462165249</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.1842780610494</v>
+        <v>280.5289653299875</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.6516031023037</v>
+        <v>253.7556746038516</v>
       </c>
       <c r="AD2" t="n">
-        <v>141922.2459388509</v>
+        <v>205028.4462165249</v>
       </c>
       <c r="AE2" t="n">
-        <v>194184.2780610494</v>
+        <v>280528.9653299875</v>
       </c>
       <c r="AF2" t="n">
         <v>2.980801954310601e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>175651.6031023037</v>
+        <v>253755.6746038516</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.4226934069087</v>
+        <v>146.1619704600427</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.348712390916</v>
+        <v>199.9852561943861</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.1905194890929</v>
+        <v>180.8989440243206</v>
       </c>
       <c r="AD2" t="n">
-        <v>108422.6934069087</v>
+        <v>146161.9704600427</v>
       </c>
       <c r="AE2" t="n">
-        <v>148348.712390916</v>
+        <v>199985.2561943861</v>
       </c>
       <c r="AF2" t="n">
         <v>2.362287476516289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>134190.5194890929</v>
+        <v>180898.9440243206</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.0215906193222</v>
+        <v>160.7963303649325</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.6411264459628</v>
+        <v>220.0086330386395</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.8823943781865</v>
+        <v>199.0113178855507</v>
       </c>
       <c r="AD2" t="n">
-        <v>113021.5906193222</v>
+        <v>160796.3303649325</v>
       </c>
       <c r="AE2" t="n">
-        <v>154641.1264459628</v>
+        <v>220008.6330386395</v>
       </c>
       <c r="AF2" t="n">
         <v>1.988425648760743e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.699074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>139882.3943781866</v>
+        <v>199011.3178855507</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.6060015011816</v>
+        <v>148.7926389087463</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.3360108462539</v>
+        <v>203.5846528228016</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.8927143725539</v>
+        <v>184.1548192903061</v>
       </c>
       <c r="AD3" t="n">
-        <v>110606.0015011816</v>
+        <v>148792.6389087462</v>
       </c>
       <c r="AE3" t="n">
-        <v>151336.0108462539</v>
+        <v>203584.6528228016</v>
       </c>
       <c r="AF3" t="n">
         <v>2.124100105989641e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.074074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>136892.7143725539</v>
+        <v>184154.8192903061</v>
       </c>
     </row>
   </sheetData>
